--- a/PPU/LAB7/data.xlsx
+++ b/PPU/LAB7/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\University\PPU\LAB7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\PPU\LAB7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5675BB-7B8D-461C-8AEA-306032508D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625F164A-8C59-4E15-84CE-A18E46AF5FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -125,12 +131,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +420,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A10:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,57 +429,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>6.3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2.5</v>
       </c>
       <c r="J4">
@@ -493,22 +506,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2.4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>6.3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="J5">
@@ -520,7 +533,7 @@
       <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>2.8</v>
       </c>
       <c r="N5">
@@ -528,22 +541,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>5.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="J6">
@@ -563,93 +576,96 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1.9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1.2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1.2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>0.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B10:D10"/>
